--- a/order_template/湖州河马生物DNA合成订购表.xlsx
+++ b/order_template/湖州河马生物DNA合成订购表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\PrimerDesign\order_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\prime-design\order_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7B1274-548C-43CF-8B97-6965E52DA20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67B3230-C22D-4AEC-A874-90459A017B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="纯化方法说明" sheetId="2" r:id="rId2"/>
     <sheet name="修饰名称" sheetId="3" r:id="rId3"/>
     <sheet name="填写示例" sheetId="4" r:id="rId4"/>
-    <sheet name="实验用引物对（不需要订购合成）" sheetId="6" r:id="rId5"/>
+    <sheet name="实验用引物对（不需要订购合成）" sheetId="7" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="182">
   <si>
     <t xml:space="preserve">
     </t>
@@ -809,124 +809,12 @@
     <t>3'端修饰填写示例：</t>
   </si>
   <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>ForwardPrimer(Fp)</t>
-  </si>
-  <si>
-    <t>ReversePrimer(Rp)</t>
-  </si>
-  <si>
-    <t>FpTm</t>
-  </si>
-  <si>
-    <t>RpTm</t>
-  </si>
-  <si>
-    <t>FpSize</t>
-  </si>
-  <si>
-    <t>RpSize</t>
-  </si>
-  <si>
-    <t>FpGC(%)</t>
-  </si>
-  <si>
-    <t>RpGC(%)</t>
-  </si>
-  <si>
-    <t>FpPos</t>
-  </si>
-  <si>
-    <t>RpPos</t>
-  </si>
-  <si>
-    <t>AmpSize(bp)</t>
-  </si>
-  <si>
-    <t>AmpGC</t>
-  </si>
-  <si>
-    <t>AmpPos</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Chr</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>primerID</t>
-  </si>
-  <si>
-    <t>sampleSn</t>
-  </si>
-  <si>
-    <t>chrom</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>TemplateID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>所有引物用TE溶解为50uM交付</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>湖州河马生物科技有限公司   寡核酸合成订购表
 客服电话：0572-2151910；0572-2151925  网址：www.hippobiotec.com</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selected</t>
-  </si>
-  <si>
-    <t>GnlAmpSize (bp)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>pHGVS</t>
-  </si>
-  <si>
-    <t>cHGVS</t>
-  </si>
-  <si>
-    <t>failed_reason</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>vaf</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>depth</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1140,13 +1028,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1403,7 +1284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1621,16 +1502,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1682,10 +1572,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1693,15 +1579,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1709,24 +1594,17 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,237 +2026,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.35" customHeight="1">
-      <c r="A1" s="71"/>
+      <c r="A1" s="73"/>
       <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="C1" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="72"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="40"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
       <c r="J2" s="58" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="59">
         <f ca="1">NOW()</f>
-        <v>45062.590887500002</v>
+        <v>45295.709777662036</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="4.3499999999999996" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="68">
         <v>18805827801</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="73" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78"/>
+      <c r="B14" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="44" t="s">
@@ -2386,14 +2264,14 @@
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="44" t="s">
@@ -2401,45 +2279,45 @@
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:13" s="35" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="45"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
     </row>
     <row r="18" spans="1:13" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="45"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="70">
         <f>SUM(D20:D99)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
     </row>
     <row r="19" spans="1:13" s="36" customFormat="1" ht="31.35" customHeight="1">
       <c r="A19" s="47" t="s">
@@ -3760,11 +3638,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:K18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D8:K17"/>
@@ -3779,6 +3652,11 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C20:C39">
@@ -3853,26 +3731,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="90" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="12.6" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1">
       <c r="A4" s="22" t="s">
@@ -4039,36 +3917,36 @@
       <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
     </row>
     <row r="22" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="88"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="89"/>
+      <c r="F23" s="91"/>
     </row>
     <row r="24" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="90"/>
+      <c r="F24" s="92"/>
     </row>
     <row r="25" spans="1:6" ht="15.95" customHeight="1">
       <c r="A25" s="30"/>
@@ -4079,88 +3957,88 @@
       <c r="F25" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
     </row>
     <row r="29" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="88"/>
     </row>
     <row r="30" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A30" s="93"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="90"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A31" s="95"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="33"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A34" s="95"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="33"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A35" s="95"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="33"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A36" s="95"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="33"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A37" s="101"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="33"/>
       <c r="D37" s="32"/>
       <c r="E37" s="34"/>
       <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A38" s="95"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="33"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
@@ -4168,14 +4046,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="A31:B32"/>
@@ -4186,6 +4056,14 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4659,10 +4537,10 @@
       <c r="K2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="100"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -4691,8 +4569,8 @@
       <c r="K3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="100"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -4721,8 +4599,8 @@
       <c r="K4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="100"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -4751,8 +4629,8 @@
       <c r="K5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="100"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1">
       <c r="K6" s="17"/>
@@ -4797,10 +4675,10 @@
       <c r="K8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="103" t="s">
+      <c r="L8" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="100"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -4829,8 +4707,8 @@
       <c r="K9" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="100"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="88"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -4859,8 +4737,8 @@
       <c r="K10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -4889,8 +4767,8 @@
       <c r="K11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="100"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="88"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="K12" s="17"/>
@@ -4935,10 +4813,10 @@
       <c r="K14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L14" s="103" t="s">
+      <c r="L14" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="100"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -4969,8 +4847,8 @@
       <c r="K15" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="100"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="88"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -5001,8 +4879,8 @@
       <c r="K16" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L16" s="102"/>
-      <c r="M16" s="100"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -5033,8 +4911,8 @@
       <c r="K17" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L17" s="102"/>
-      <c r="M17" s="100"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="88"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
       <c r="K18" s="17"/>
@@ -5057,8 +4935,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="100"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="88"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1">
       <c r="A21" s="4"/>
@@ -5072,8 +4950,8 @@
       <c r="I21" s="12"/>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="100"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="88"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="4"/>
@@ -5087,8 +4965,8 @@
       <c r="I22" s="12"/>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="100"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="88"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" customHeight="1">
       <c r="A23" s="4"/>
@@ -5102,8 +4980,8 @@
       <c r="I23" s="12"/>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="100"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="88"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" customHeight="1">
       <c r="K24" s="17"/>
@@ -5124,8 +5002,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="100"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="88"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1">
       <c r="A27" s="4"/>
@@ -5139,8 +5017,8 @@
       <c r="I27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="100"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="88"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" customHeight="1">
       <c r="A28" s="4"/>
@@ -5154,8 +5032,8 @@
       <c r="I28" s="12"/>
       <c r="J28" s="15"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="100"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="88"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" customHeight="1">
       <c r="A29" s="4"/>
@@ -5169,8 +5047,8 @@
       <c r="I29" s="12"/>
       <c r="J29" s="15"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="100"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="88"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1">
       <c r="K30" s="17"/>
@@ -5191,8 +5069,8 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="100"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="88"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1">
       <c r="A33" s="4"/>
@@ -5206,8 +5084,8 @@
       <c r="I33" s="12"/>
       <c r="J33" s="15"/>
       <c r="K33" s="16"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="100"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="88"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" customHeight="1">
       <c r="A34" s="4"/>
@@ -5221,8 +5099,8 @@
       <c r="I34" s="12"/>
       <c r="J34" s="15"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="100"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" customHeight="1">
       <c r="A35" s="4"/>
@@ -5236,11 +5114,23 @@
       <c r="I35" s="12"/>
       <c r="J35" s="15"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="100"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -5253,18 +5143,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="7">
@@ -5288,150 +5166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F58A6E3-E749-4D76-B90A-6D74ACCFB58D}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5" style="61" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="61" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="61" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="S1" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="T1" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="V1" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="W1" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="X1" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y1" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z1" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA1" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB1" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD1" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE1" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF1" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG1" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH1" s="65" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>